--- a/biology/Médecine/Médecine_tropicale/Médecine_tropicale.xlsx
+++ b/biology/Médecine/Médecine_tropicale/Médecine_tropicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_tropicale</t>
+          <t>Médecine_tropicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La médecine tropicale est une branche de la médecine consacrée aux affections typiques des zones tropicales (les « maladies tropicales »)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La médecine tropicale est une branche de la médecine consacrée aux affections typiques des zones tropicales (les « maladies tropicales »).
 Elle concerne ces zones elles-mêmes mais aussi et de plus en plus le monde entier, en raison de  la mondialisation et l’accélération des transports de biens et personnes, qui contribuent à diffuser sur toute la planète des pathogènes et leurs vecteurs, plusieurs maladies émergentes étant en outre susceptibles de prendre un caractère pandémiques durable (comme le SIDA dû au VIH ou peut-être la grippe aviaire). Avec des ONG comme Médecins du monde, Médecins sans frontières et la Croix-Rouge internationale, et sous l'égide de l'OMS, elle est devenue un élément à part entière de l'aide humanitaire.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_tropicale</t>
+          <t>Médecine_tropicale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a toujours eu des remèdes locaux et pratiques médicales spécifiques aux zones tropicales.
 Une spécialité médicale scientifique et spécifique semble s'être développée hors des zones tropicales elles-mêmes dès le début des grandes explorations, aux époques gréco-romaines, mais surtout en occident au début des grandes périodes de colonisation. Garcia da Orta (1500-1568) en est ainsi considéré comme un précurseur, en tant qu’auteur du premier traité de médecine tropicale, au XVIe siècle.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_tropicale</t>
+          <t>Médecine_tropicale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Contenus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils incluent, dans la mesure où elles sont spécifiquement tropicales ou qu'elles le sont devenues ;
 les maladies transmissibles (généralement infectieuses)
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_tropicale</t>
+          <t>Médecine_tropicale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Personnalités, puis ONG...</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une médecine qui a d'abord été porté par des personnalités. De nombreux précurseurs ont dans chaque pays contribué à développer cette spécialité dont Jacques de Bondt et Willem Piso médecins du XVIIe siècle jusqu'à Alphonse Laveran (1845-1922), qui explique le paludisme et contribuera au recul du paludisme dans le sud de la France par la démoustication, ainsi qu'au développement des compétences de l'Institut Pasteur en matière de médecine tropicale.
 La Croix-Rouge puis d’autres ONG (Médecins sans frontières, Vétérinaires sans frontières) poursuivent le travail de terrain entamé par des pionniers de la  médecine tropicale tels qu’Albert Schweitzer ou Patrick Manson (1844-1922).
